--- a/Datos/Database by set/Set with text box/Xlsx sets/Theros Beyond Death Tokens (TTHB).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Theros Beyond Death Tokens (TTHB).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,343 +444,98 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Elemental</t>
+          <t>('Elemental', ['Token Creature — Elemental', 'Trample, haste', '*/1'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Creature — Elemental</t>
+          <t>('Goat', ['Token Creature — Goat', '0/1'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Trample, haste</t>
+          <t>('Gold', ['Token Artifact — Gold', 'Sacrifice this artifact: Add one mana of any color.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>*/1</t>
+          <t>('Human Soldier', ['Token Creature — Human Soldier', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Goat</t>
+          <t>('Kraken', ['Token Creature — Kraken', 'Hexproof (This creature can’t be the target of spells or abilities your opponents control.)', '8/8'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Token Creature — Goat</t>
+          <t>('Nightmare', ['Token Creature — Nightmare', 'Whenever this creature attacks or blocks, each opponent exiles the top two cards of their library.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>('Pegasus', ['Token Creature — Pegasus', 'Flying', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>('Reflection', ['Token Creature — Reflection', '3/2'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Token Artifact — Gold</t>
+          <t>('Satyr', ['Token Creature — Satyr', 'This creature can’t block.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sacrifice this artifact: Add one mana of any color.</t>
+          <t>('Spider', ['Token Creature — Spider', 'Reach', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Human Soldier</t>
+          <t>('Tentacle', ['Token Creature — Tentacle', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Token Creature — Human Soldier</t>
+          <t>('Wall', ['Token Artifact Creature — Wall', 'Defender', '0/4'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>('Wolf', ['Token Creature — Wolf', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kraken</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Token Creature — Kraken</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Hexproof (This creature can’t be the target of spells or abilities your opponents control.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>8/8</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Nightmare</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Token Creature — Nightmare</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Whenever this creature attacks or blocks, each opponent exiles the top two cards of their library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Pegasus</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Token Creature — Pegasus</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Reflection</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Token Creature — Reflection</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>3/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Satyr</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Token Creature — Satyr</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>This creature can’t block.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Spider</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Token Creature — Spider</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Reach</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Tentacle</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Token Creature — Tentacle</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Wall</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Token Artifact Creature — Wall</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Defender</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>0/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Wolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Token Creature — Wolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>('Zombie', ['Token Creature — Zombie', '2/2'])</t>
         </is>
       </c>
     </row>
